--- a/wwwroot/Strorage/SystemRegistrations.xlsx
+++ b/wwwroot/Strorage/SystemRegistrations.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PavanPortfolio\Models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PavanPortfolio\wwwroot\Strorage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{390F4D57-5FBF-4509-B490-0A6F5B82758F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625049DC-3C4B-4E24-8DBE-705D90A4BDD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BAE8A91B-0D3B-4DAA-8DA8-92BCF22697C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1" fullPrecision="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>SystemId</t>
   </si>
@@ -44,43 +44,12 @@
   <si>
     <t>RegisteredAt</t>
   </si>
-  <si>
-    <t>-1985083642</t>
-  </si>
-  <si>
-    <t>OS: Microsoft Windows NT 10.0.19045.0, Machine: DESKTOP-BA7OOTH, Domain: DESKTOP-BA7OOTH</t>
-  </si>
-  <si>
-    <t>18-03-25 1:04:16 AM</t>
-  </si>
-  <si>
-    <t>-369402833</t>
-  </si>
-  <si>
-    <t>18-03-25 6:37:37 AM</t>
-  </si>
-  <si>
-    <t>DESKTOP-BA7OOTH_Microsoft Windows NT 10.0.19045.0</t>
-  </si>
-  <si>
-    <t>18-03-25 6:45:22 AM</t>
-  </si>
-  <si>
-    <t>Win32_Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.0.0 Safari/537.36</t>
-  </si>
-  <si>
-    <t>OS: Win32, Browser: Mozilla/5.0 (Windows NT 10.0; Win64; x64) AppleWebKit/537.36 (KHTML, like Gecko) Chrome/134.0.0.0 Safari/537.36, Screen: 1536x864</t>
-  </si>
-  <si>
-    <t>18-03-25 9:50:26 PM</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -425,76 +394,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83229955-CCFF-474F-9A58-7F0542038532}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.33203125" customWidth="1"/>
     <col min="2" max="2" width="20.44140625" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="42.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>